--- a/CART dependencies/cmd_timeseries.xlsx
+++ b/CART dependencies/cmd_timeseries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banderso2\Documents\MIRACL\FC Microgrid\CART dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8D1372-EC1F-4491-9D49-255D00433AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEBBEA6-2262-4D7A-A74D-E0DEA973031B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20DC0BD7-C883-414C-A68B-91FA909E9DE8}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="3960" windowHeight="2940" xr2:uid="{20DC0BD7-C883-414C-A68B-91FA909E9DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="P" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="V" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -16073,7 +16074,7 @@
       </c>
       <c r="B2">
         <f ca="1">575+0.5*RAND()</f>
-        <v>575.33575163434523</v>
+        <v>575.252534913575</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16082,7 +16083,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B52" ca="1" si="0">575+0.5*RAND()</f>
-        <v>575.29652591457545</v>
+        <v>575.29988401536934</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -16091,7 +16092,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>575.04227760201206</v>
+        <v>575.27779417356965</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -16100,7 +16101,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>575.25371183769664</v>
+        <v>575.10955331260686</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -16109,7 +16110,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>575.34319599494665</v>
+        <v>575.00614168294544</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -16118,7 +16119,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>575.29856818793144</v>
+        <v>575.45445540551293</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -16127,7 +16128,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>575.45827551355819</v>
+        <v>575.31505560613198</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -16136,7 +16137,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>575.22309576415853</v>
+        <v>575.18015565201335</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -16145,7 +16146,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>575.07400050842</v>
+        <v>575.00085727943872</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -16154,7 +16155,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>575.47454759666061</v>
+        <v>575.49812945480983</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -16163,7 +16164,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>575.36461049238892</v>
+        <v>575.18803076338054</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -16172,7 +16173,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>575.31487824939052</v>
+        <v>575.29211527350026</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -16181,7 +16182,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>575.40117349912509</v>
+        <v>575.48372976856695</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -16190,7 +16191,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>575.02257719493457</v>
+        <v>575.34174712226331</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -16199,7 +16200,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>575.37422143840593</v>
+        <v>575.16563524488299</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -16208,7 +16209,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>575.18722674271783</v>
+        <v>575.08158710528051</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -16217,7 +16218,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>575.22528871611894</v>
+        <v>575.16084744380703</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -16226,7 +16227,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>575.18625172263887</v>
+        <v>575.12620964672817</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -16235,7 +16236,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>575.29342141148959</v>
+        <v>575.00740272649819</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -16244,7 +16245,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>575.35682662450358</v>
+        <v>575.3958718405263</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -16253,7 +16254,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>575.36958401738411</v>
+        <v>575.02513792079583</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -16262,7 +16263,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>575.15519257382289</v>
+        <v>575.35166816235176</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -16271,7 +16272,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>575.2876893165153</v>
+        <v>575.30059462345378</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -16280,7 +16281,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>575.29596739077272</v>
+        <v>575.36052751985085</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -16289,7 +16290,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>575.27950313556676</v>
+        <v>575.28646053869477</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -16298,7 +16299,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>575.19661964007503</v>
+        <v>575.45234455983928</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -16307,7 +16308,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>575.03688397707117</v>
+        <v>575.13327817235268</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -16316,7 +16317,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>575.45148644312849</v>
+        <v>575.13632746717064</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -16325,7 +16326,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>575.10349037822698</v>
+        <v>575.19221351697433</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -16334,7 +16335,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>575.14348859151596</v>
+        <v>575.26008205104961</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -16343,7 +16344,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>575.17937643830282</v>
+        <v>575.2890109596002</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -16352,7 +16353,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>575.2894950805304</v>
+        <v>575.32569324460883</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -16361,7 +16362,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>575.22106797645915</v>
+        <v>575.0241290521401</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -16370,7 +16371,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>575.39521312028171</v>
+        <v>575.28899411998623</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -16379,7 +16380,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>575.12082480088043</v>
+        <v>575.19583553096891</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -16388,7 +16389,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>575.31497982177302</v>
+        <v>575.47236927420454</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -16397,7 +16398,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>575.48353586660744</v>
+        <v>575.06215122648325</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -16406,7 +16407,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>575.16339916499157</v>
+        <v>575.02070828786236</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -16415,7 +16416,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>575.20523089550522</v>
+        <v>575.12464452874508</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -16424,7 +16425,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>575.38426518814117</v>
+        <v>575.05743773156689</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -16433,7 +16434,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>575.47812658823318</v>
+        <v>575.18237819196293</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -16442,7 +16443,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>575.17785045173343</v>
+        <v>575.2560958715369</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -16451,7 +16452,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>575.18210226285839</v>
+        <v>575.47913966124725</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -16460,7 +16461,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>575.39460265686341</v>
+        <v>575.14546754362004</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -16469,7 +16470,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>575.27751306505388</v>
+        <v>575.00156777169263</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -16478,7 +16479,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>575.1244206891572</v>
+        <v>575.01247946858985</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -16487,7 +16488,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>575.31754266958831</v>
+        <v>575.20018727662318</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -16496,7 +16497,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>575.44416184223871</v>
+        <v>575.12930236529439</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -16505,7 +16506,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>575.26776436382477</v>
+        <v>575.03073642383356</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -16514,7 +16515,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>575.02117497355607</v>
+        <v>575.10789812041435</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -16523,7 +16524,7 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="0"/>
-        <v>575.35631991692105</v>
+        <v>575.01318503595337</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -16532,7 +16533,7 @@
       </c>
       <c r="B53">
         <f ca="1">B52-RAND()</f>
-        <v>575.33708056381977</v>
+        <v>574.30873060610702</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -16541,7 +16542,7 @@
       </c>
       <c r="B54">
         <f t="shared" ref="B54:B113" ca="1" si="1">B53-RAND()</f>
-        <v>574.95445779099452</v>
+        <v>573.86663674227816</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -16550,7 +16551,7 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>574.83638301701683</v>
+        <v>573.31910865792645</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -16559,7 +16560,7 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>574.37688759495097</v>
+        <v>572.64077172873647</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -16568,7 +16569,7 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>574.18347891798123</v>
+        <v>572.15664650696976</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -16577,7 +16578,7 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>573.41996226978881</v>
+        <v>571.32249045440653</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -16586,7 +16587,7 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>573.25079175526014</v>
+        <v>570.692513277118</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -16595,7 +16596,7 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>572.37517806958954</v>
+        <v>570.11156267427066</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -16604,7 +16605,7 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>571.84060655038161</v>
+        <v>569.99135324259794</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -16613,7 +16614,7 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>571.70732983786502</v>
+        <v>569.37370602574913</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -16622,7 +16623,7 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>571.36959278157303</v>
+        <v>569.23426223719287</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -16631,7 +16632,7 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>570.47450125490536</v>
+        <v>569.09002392078787</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -16640,7 +16641,7 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>569.96576728359321</v>
+        <v>568.78195826951651</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -16649,7 +16650,7 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="1"/>
-        <v>569.30100943587115</v>
+        <v>568.4407832972031</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -16658,7 +16659,7 @@
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="1"/>
-        <v>569.15807218730038</v>
+        <v>567.82971898456594</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -16667,7 +16668,7 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="1"/>
-        <v>568.80018676712029</v>
+        <v>567.78918674910119</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -16676,7 +16677,7 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="1"/>
-        <v>567.83786054082464</v>
+        <v>566.82529186797012</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -16685,7 +16686,7 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="1"/>
-        <v>567.02019344062717</v>
+        <v>566.44369681544197</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -16694,7 +16695,7 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="1"/>
-        <v>566.7262477108444</v>
+        <v>566.15241061176664</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -16703,7 +16704,7 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="1"/>
-        <v>565.80341060894455</v>
+        <v>566.02363091286566</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -16712,7 +16713,7 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="1"/>
-        <v>564.86363755481466</v>
+        <v>565.8304752931947</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -16721,7 +16722,7 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="1"/>
-        <v>564.09698475495816</v>
+        <v>565.33642129744965</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -16730,7 +16731,7 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="1"/>
-        <v>563.65532712016704</v>
+        <v>564.89825568808942</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -16739,7 +16740,7 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="1"/>
-        <v>563.58897392116592</v>
+        <v>564.65583028781418</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -16748,7 +16749,7 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="1"/>
-        <v>562.82737077897775</v>
+        <v>564.23222243437772</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -16757,7 +16758,7 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="1"/>
-        <v>562.01753939417074</v>
+        <v>563.84669325965206</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -16766,7 +16767,7 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="1"/>
-        <v>561.14409925430959</v>
+        <v>563.18478500713957</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -16775,7 +16776,7 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="1"/>
-        <v>561.13823317614037</v>
+        <v>562.41294177192901</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -16784,7 +16785,7 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="1"/>
-        <v>560.77348232579607</v>
+        <v>562.24495026500165</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -16793,7 +16794,7 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="1"/>
-        <v>560.21309108139417</v>
+        <v>561.89942730371877</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -16802,7 +16803,7 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="1"/>
-        <v>559.53737981900269</v>
+        <v>561.79722002627409</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -16811,7 +16812,7 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="1"/>
-        <v>558.8689579743284</v>
+        <v>560.83646659803696</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -16820,7 +16821,7 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="1"/>
-        <v>558.23239833848822</v>
+        <v>560.15865414552616</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -16829,7 +16830,7 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="1"/>
-        <v>557.91792697491496</v>
+        <v>559.80156879138269</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -16838,7 +16839,7 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="1"/>
-        <v>557.16746528471504</v>
+        <v>559.46717502818649</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -16847,7 +16848,7 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="1"/>
-        <v>556.81895341250447</v>
+        <v>558.7677132158484</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -16856,7 +16857,7 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="1"/>
-        <v>555.86113714485589</v>
+        <v>558.42017083465043</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -16865,7 +16866,7 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="1"/>
-        <v>555.35621413772446</v>
+        <v>557.8952754222795</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -16874,7 +16875,7 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="1"/>
-        <v>554.60248488247487</v>
+        <v>557.17522635722264</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -16883,7 +16884,7 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="1"/>
-        <v>554.10815166421241</v>
+        <v>557.17147891709419</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -16892,7 +16893,7 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="1"/>
-        <v>553.23696032732676</v>
+        <v>556.58337412500009</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -16901,7 +16902,7 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="1"/>
-        <v>552.44226554376428</v>
+        <v>555.72238273935318</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -16910,7 +16911,7 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="1"/>
-        <v>551.97820146844333</v>
+        <v>555.5313587935733</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -16919,7 +16920,7 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="1"/>
-        <v>551.63367815923982</v>
+        <v>555.28791947367324</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -16928,7 +16929,7 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="1"/>
-        <v>551.27881206398285</v>
+        <v>555.01527267623044</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -16937,7 +16938,7 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="1"/>
-        <v>550.63729136094969</v>
+        <v>554.24212028757097</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -16946,7 +16947,7 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="1"/>
-        <v>550.41284821940837</v>
+        <v>554.19949918613338</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -16955,7 +16956,7 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="1"/>
-        <v>549.77373790799459</v>
+        <v>553.72495083338447</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -16964,7 +16965,7 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="1"/>
-        <v>548.80316173535675</v>
+        <v>552.8025724698075</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -16973,7 +16974,7 @@
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="1"/>
-        <v>548.38373486182456</v>
+        <v>552.23154718978287</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -16982,7 +16983,7 @@
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="1"/>
-        <v>547.43729603763563</v>
+        <v>551.29101815047181</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -16991,7 +16992,7 @@
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="1"/>
-        <v>546.68798445879031</v>
+        <v>550.69427719692021</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -17000,7 +17001,7 @@
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="1"/>
-        <v>546.50578394010597</v>
+        <v>549.83912649357239</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -17009,7 +17010,7 @@
       </c>
       <c r="B106">
         <f t="shared" ca="1" si="1"/>
-        <v>546.34699003569631</v>
+        <v>549.14309691008998</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -17018,7 +17019,7 @@
       </c>
       <c r="B107">
         <f t="shared" ca="1" si="1"/>
-        <v>546.18876946259081</v>
+        <v>548.85141591859554</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -17027,7 +17028,7 @@
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="1"/>
-        <v>545.52096916356993</v>
+        <v>548.24326525460287</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -17036,7 +17037,7 @@
       </c>
       <c r="B109">
         <f t="shared" ca="1" si="1"/>
-        <v>544.75407202853182</v>
+        <v>547.24642009848822</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -17045,7 +17046,7 @@
       </c>
       <c r="B110">
         <f t="shared" ca="1" si="1"/>
-        <v>544.22518788433013</v>
+        <v>546.38911973042923</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -17054,7 +17055,7 @@
       </c>
       <c r="B111">
         <f t="shared" ca="1" si="1"/>
-        <v>543.80520766640177</v>
+        <v>546.17815566869706</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -17063,7 +17064,7 @@
       </c>
       <c r="B112">
         <f t="shared" ca="1" si="1"/>
-        <v>543.17264182482916</v>
+        <v>545.39859836499693</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -17072,7 +17073,7 @@
       </c>
       <c r="B113">
         <f t="shared" ca="1" si="1"/>
-        <v>542.70546091763129</v>
+        <v>544.65049403497937</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -17081,7 +17082,7 @@
       </c>
       <c r="B114">
         <f ca="1">B113+0.1*RAND()</f>
-        <v>542.7844411303422</v>
+        <v>544.65550429444556</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -17090,7 +17091,7 @@
       </c>
       <c r="B115">
         <f t="shared" ref="B115:B178" ca="1" si="2">B114+0.1*RAND()</f>
-        <v>542.81781620028244</v>
+        <v>544.67351250111165</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -17099,7 +17100,7 @@
       </c>
       <c r="B116">
         <f t="shared" ca="1" si="2"/>
-        <v>542.87720537859036</v>
+        <v>544.71965613524526</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -17108,7 +17109,7 @@
       </c>
       <c r="B117">
         <f t="shared" ca="1" si="2"/>
-        <v>542.87815717111607</v>
+        <v>544.75527836097149</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -17117,7 +17118,7 @@
       </c>
       <c r="B118">
         <f t="shared" ca="1" si="2"/>
-        <v>542.92335852778353</v>
+        <v>544.84193583279603</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -17126,7 +17127,7 @@
       </c>
       <c r="B119">
         <f t="shared" ca="1" si="2"/>
-        <v>542.9709225195935</v>
+        <v>544.8914807560966</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -17135,7 +17136,7 @@
       </c>
       <c r="B120">
         <f t="shared" ca="1" si="2"/>
-        <v>542.99773855857109</v>
+        <v>544.93400612267862</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -17144,7 +17145,7 @@
       </c>
       <c r="B121">
         <f t="shared" ca="1" si="2"/>
-        <v>543.01464310790175</v>
+        <v>545.02155070508525</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -17153,7 +17154,7 @@
       </c>
       <c r="B122">
         <f t="shared" ca="1" si="2"/>
-        <v>543.05499517583212</v>
+        <v>545.05442738483725</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -17162,7 +17163,7 @@
       </c>
       <c r="B123">
         <f t="shared" ca="1" si="2"/>
-        <v>543.05762602928598</v>
+        <v>545.1303399581094</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -17171,7 +17172,7 @@
       </c>
       <c r="B124">
         <f t="shared" ca="1" si="2"/>
-        <v>543.06984198622047</v>
+        <v>545.17403948842343</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -17180,7 +17181,7 @@
       </c>
       <c r="B125">
         <f t="shared" ca="1" si="2"/>
-        <v>543.11285841165568</v>
+        <v>545.19446975078972</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -17189,7 +17190,7 @@
       </c>
       <c r="B126">
         <f t="shared" ca="1" si="2"/>
-        <v>543.14761342165082</v>
+        <v>545.24178001741961</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -17198,7 +17199,7 @@
       </c>
       <c r="B127">
         <f t="shared" ca="1" si="2"/>
-        <v>543.17160424213034</v>
+        <v>545.3157428370763</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -17207,7 +17208,7 @@
       </c>
       <c r="B128">
         <f t="shared" ca="1" si="2"/>
-        <v>543.23286989087467</v>
+        <v>545.3202389457573</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -17216,7 +17217,7 @@
       </c>
       <c r="B129">
         <f t="shared" ca="1" si="2"/>
-        <v>543.28019482601769</v>
+        <v>545.4091715299927</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -17225,7 +17226,7 @@
       </c>
       <c r="B130">
         <f t="shared" ca="1" si="2"/>
-        <v>543.28051052390697</v>
+        <v>545.49471741397338</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -17234,7 +17235,7 @@
       </c>
       <c r="B131">
         <f t="shared" ca="1" si="2"/>
-        <v>543.31431157787608</v>
+        <v>545.53752876490967</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -17243,7 +17244,7 @@
       </c>
       <c r="B132">
         <f t="shared" ca="1" si="2"/>
-        <v>543.40273074128618</v>
+        <v>545.57121786633559</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -17252,7 +17253,7 @@
       </c>
       <c r="B133">
         <f t="shared" ca="1" si="2"/>
-        <v>543.41513580271703</v>
+        <v>545.61331056495135</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -17261,7 +17262,7 @@
       </c>
       <c r="B134">
         <f t="shared" ca="1" si="2"/>
-        <v>543.51381011326191</v>
+        <v>545.67652660911108</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -17270,7 +17271,7 @@
       </c>
       <c r="B135">
         <f t="shared" ca="1" si="2"/>
-        <v>543.6129631705993</v>
+        <v>545.69033676083859</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -17279,7 +17280,7 @@
       </c>
       <c r="B136">
         <f t="shared" ca="1" si="2"/>
-        <v>543.64442813864207</v>
+        <v>545.75602960902063</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -17288,7 +17289,7 @@
       </c>
       <c r="B137">
         <f t="shared" ca="1" si="2"/>
-        <v>543.71233570455638</v>
+        <v>545.82529826125938</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -17297,7 +17298,7 @@
       </c>
       <c r="B138">
         <f t="shared" ca="1" si="2"/>
-        <v>543.72145431649187</v>
+        <v>545.84506293470338</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -17306,7 +17307,7 @@
       </c>
       <c r="B139">
         <f t="shared" ca="1" si="2"/>
-        <v>543.72401513450075</v>
+        <v>545.87595136354662</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -17315,7 +17316,7 @@
       </c>
       <c r="B140">
         <f t="shared" ca="1" si="2"/>
-        <v>543.80623696270732</v>
+        <v>545.92642377535026</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -17324,7 +17325,7 @@
       </c>
       <c r="B141">
         <f t="shared" ca="1" si="2"/>
-        <v>543.84927491967483</v>
+        <v>546.01755487459059</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -17333,7 +17334,7 @@
       </c>
       <c r="B142">
         <f t="shared" ca="1" si="2"/>
-        <v>543.94777717900172</v>
+        <v>546.03189770365668</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -17342,7 +17343,7 @@
       </c>
       <c r="B143">
         <f t="shared" ca="1" si="2"/>
-        <v>543.95467734415706</v>
+        <v>546.04330916539777</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -17351,7 +17352,7 @@
       </c>
       <c r="B144">
         <f t="shared" ca="1" si="2"/>
-        <v>543.9735126971766</v>
+        <v>546.13889471298046</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -17360,7 +17361,7 @@
       </c>
       <c r="B145">
         <f t="shared" ca="1" si="2"/>
-        <v>543.98413562455085</v>
+        <v>546.19605409582414</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -17369,7 +17370,7 @@
       </c>
       <c r="B146">
         <f t="shared" ca="1" si="2"/>
-        <v>544.00619560391021</v>
+        <v>546.25486891223727</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -17378,7 +17379,7 @@
       </c>
       <c r="B147">
         <f t="shared" ca="1" si="2"/>
-        <v>544.05069498643104</v>
+        <v>546.2819851283175</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -17387,7 +17388,7 @@
       </c>
       <c r="B148">
         <f t="shared" ca="1" si="2"/>
-        <v>544.05869086137307</v>
+        <v>546.35892422695895</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -17396,7 +17397,7 @@
       </c>
       <c r="B149">
         <f t="shared" ca="1" si="2"/>
-        <v>544.11883416718297</v>
+        <v>546.36512007261672</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -17405,7 +17406,7 @@
       </c>
       <c r="B150">
         <f t="shared" ca="1" si="2"/>
-        <v>544.17641521458972</v>
+        <v>546.42445138407925</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -17414,7 +17415,7 @@
       </c>
       <c r="B151">
         <f t="shared" ca="1" si="2"/>
-        <v>544.25149888041165</v>
+        <v>546.44060035731411</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -17423,7 +17424,7 @@
       </c>
       <c r="B152">
         <f t="shared" ca="1" si="2"/>
-        <v>544.27150404307577</v>
+        <v>546.45727940801794</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -17432,7 +17433,7 @@
       </c>
       <c r="B153">
         <f t="shared" ca="1" si="2"/>
-        <v>544.36095625660948</v>
+        <v>546.48270967974963</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -17441,7 +17442,7 @@
       </c>
       <c r="B154">
         <f t="shared" ca="1" si="2"/>
-        <v>544.4495099379692</v>
+        <v>546.53312798450236</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -17450,7 +17451,7 @@
       </c>
       <c r="B155">
         <f t="shared" ca="1" si="2"/>
-        <v>544.545089935806</v>
+        <v>546.59754056431655</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -17459,7 +17460,7 @@
       </c>
       <c r="B156">
         <f t="shared" ca="1" si="2"/>
-        <v>544.61922813144179</v>
+        <v>546.6635672364215</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -17468,7 +17469,7 @@
       </c>
       <c r="B157">
         <f t="shared" ca="1" si="2"/>
-        <v>544.63672137322885</v>
+        <v>546.76211196187535</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -17477,7 +17478,7 @@
       </c>
       <c r="B158">
         <f t="shared" ca="1" si="2"/>
-        <v>544.67131093257888</v>
+        <v>546.77432524286451</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -17486,7 +17487,7 @@
       </c>
       <c r="B159">
         <f t="shared" ca="1" si="2"/>
-        <v>544.72818517188409</v>
+        <v>546.7802517234835</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -17495,7 +17496,7 @@
       </c>
       <c r="B160">
         <f t="shared" ca="1" si="2"/>
-        <v>544.76847103184593</v>
+        <v>546.87545193693438</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -17504,7 +17505,7 @@
       </c>
       <c r="B161">
         <f t="shared" ca="1" si="2"/>
-        <v>544.81089318286399</v>
+        <v>546.8969277596284</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -17513,7 +17514,7 @@
       </c>
       <c r="B162">
         <f t="shared" ca="1" si="2"/>
-        <v>544.86519310366282</v>
+        <v>546.92787818701788</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -17522,7 +17523,7 @@
       </c>
       <c r="B163">
         <f t="shared" ca="1" si="2"/>
-        <v>544.90310147898299</v>
+        <v>547.02393296840364</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -17531,7 +17532,7 @@
       </c>
       <c r="B164">
         <f t="shared" ca="1" si="2"/>
-        <v>544.91671184115694</v>
+        <v>547.08089964662668</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -17540,7 +17541,7 @@
       </c>
       <c r="B165">
         <f t="shared" ca="1" si="2"/>
-        <v>544.95454097759182</v>
+        <v>547.17276559613435</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -17549,7 +17550,7 @@
       </c>
       <c r="B166">
         <f t="shared" ca="1" si="2"/>
-        <v>545.00661527678653</v>
+        <v>547.18480637563175</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -17558,7 +17559,7 @@
       </c>
       <c r="B167">
         <f t="shared" ca="1" si="2"/>
-        <v>545.0832424929423</v>
+        <v>547.24979951998205</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -17567,7 +17568,7 @@
       </c>
       <c r="B168">
         <f t="shared" ca="1" si="2"/>
-        <v>545.0855530822015</v>
+        <v>547.34532972263162</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -17576,7 +17577,7 @@
       </c>
       <c r="B169">
         <f t="shared" ca="1" si="2"/>
-        <v>545.12369657986096</v>
+        <v>547.38380366712113</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -17585,7 +17586,7 @@
       </c>
       <c r="B170">
         <f t="shared" ca="1" si="2"/>
-        <v>545.14736444135292</v>
+        <v>547.41212787814175</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -17594,7 +17595,7 @@
       </c>
       <c r="B171">
         <f t="shared" ca="1" si="2"/>
-        <v>545.20303425576537</v>
+        <v>547.49740151709807</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -17603,7 +17604,7 @@
       </c>
       <c r="B172">
         <f t="shared" ca="1" si="2"/>
-        <v>545.27855881111145</v>
+        <v>547.57795729551674</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -17612,7 +17613,7 @@
       </c>
       <c r="B173">
         <f t="shared" ca="1" si="2"/>
-        <v>545.30029763859488</v>
+        <v>547.6433622388754</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -17621,7 +17622,7 @@
       </c>
       <c r="B174">
         <f t="shared" ca="1" si="2"/>
-        <v>545.352099610094</v>
+        <v>547.74138717553217</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -17630,7 +17631,7 @@
       </c>
       <c r="B175">
         <f t="shared" ca="1" si="2"/>
-        <v>545.4114887535768</v>
+        <v>547.75947005115336</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -17639,7 +17640,7 @@
       </c>
       <c r="B176">
         <f t="shared" ca="1" si="2"/>
-        <v>545.49530013662002</v>
+        <v>547.82120351785795</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -17648,7 +17649,7 @@
       </c>
       <c r="B177">
         <f t="shared" ca="1" si="2"/>
-        <v>545.57477770699472</v>
+        <v>547.85331666461855</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -17657,7 +17658,7 @@
       </c>
       <c r="B178">
         <f t="shared" ca="1" si="2"/>
-        <v>545.60309174913027</v>
+        <v>547.89435559147137</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -17666,7 +17667,7 @@
       </c>
       <c r="B179">
         <f t="shared" ref="B179:B242" ca="1" si="3">B178+0.1*RAND()</f>
-        <v>545.7027364062792</v>
+        <v>547.96989533001351</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -17675,7 +17676,7 @@
       </c>
       <c r="B180">
         <f t="shared" ca="1" si="3"/>
-        <v>545.76485228646004</v>
+        <v>548.04352299307664</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -17684,7 +17685,7 @@
       </c>
       <c r="B181">
         <f t="shared" ca="1" si="3"/>
-        <v>545.84187789403848</v>
+        <v>548.13697976395599</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -17693,7 +17694,7 @@
       </c>
       <c r="B182">
         <f t="shared" ca="1" si="3"/>
-        <v>545.91358437981864</v>
+        <v>548.14899444183959</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -17702,7 +17703,7 @@
       </c>
       <c r="B183">
         <f t="shared" ca="1" si="3"/>
-        <v>545.97741220817818</v>
+        <v>548.16331519640983</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -17711,7 +17712,7 @@
       </c>
       <c r="B184">
         <f t="shared" ca="1" si="3"/>
-        <v>546.07118619311586</v>
+        <v>548.245441883485</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -17720,7 +17721,7 @@
       </c>
       <c r="B185">
         <f t="shared" ca="1" si="3"/>
-        <v>546.10133011890275</v>
+        <v>548.3092094916758</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -17729,7 +17730,7 @@
       </c>
       <c r="B186">
         <f t="shared" ca="1" si="3"/>
-        <v>546.12848775294367</v>
+        <v>548.36521186043262</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -17738,7 +17739,7 @@
       </c>
       <c r="B187">
         <f t="shared" ca="1" si="3"/>
-        <v>546.22059898158784</v>
+        <v>548.37379945781254</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -17747,7 +17748,7 @@
       </c>
       <c r="B188">
         <f t="shared" ca="1" si="3"/>
-        <v>546.2839155530927</v>
+        <v>548.45416920580476</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -17756,7 +17757,7 @@
       </c>
       <c r="B189">
         <f t="shared" ca="1" si="3"/>
-        <v>546.3536486817427</v>
+        <v>548.51339259892461</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -17765,7 +17766,7 @@
       </c>
       <c r="B190">
         <f t="shared" ca="1" si="3"/>
-        <v>546.3573305548307</v>
+        <v>548.58275779211726</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -17774,7 +17775,7 @@
       </c>
       <c r="B191">
         <f t="shared" ca="1" si="3"/>
-        <v>546.36131121559674</v>
+        <v>548.68199592169162</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -17783,7 +17784,7 @@
       </c>
       <c r="B192">
         <f t="shared" ca="1" si="3"/>
-        <v>546.38799724054877</v>
+        <v>548.75836106638769</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -17792,7 +17793,7 @@
       </c>
       <c r="B193">
         <f t="shared" ca="1" si="3"/>
-        <v>546.47671392574</v>
+        <v>548.82898077034167</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -17801,7 +17802,7 @@
       </c>
       <c r="B194">
         <f t="shared" ca="1" si="3"/>
-        <v>546.52840341254591</v>
+        <v>548.84194266974782</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -17810,7 +17811,7 @@
       </c>
       <c r="B195">
         <f t="shared" ca="1" si="3"/>
-        <v>546.62198188527429</v>
+        <v>548.87167259893556</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -17819,7 +17820,7 @@
       </c>
       <c r="B196">
         <f t="shared" ca="1" si="3"/>
-        <v>546.67825430818959</v>
+        <v>548.95349136905782</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -17828,7 +17829,7 @@
       </c>
       <c r="B197">
         <f t="shared" ca="1" si="3"/>
-        <v>546.70565387419128</v>
+        <v>549.04948500937633</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -17837,7 +17838,7 @@
       </c>
       <c r="B198">
         <f t="shared" ca="1" si="3"/>
-        <v>546.70921597478889</v>
+        <v>549.14085145971364</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -17846,7 +17847,7 @@
       </c>
       <c r="B199">
         <f t="shared" ca="1" si="3"/>
-        <v>546.80657054670121</v>
+        <v>549.18104881162878</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -17855,7 +17856,7 @@
       </c>
       <c r="B200">
         <f t="shared" ca="1" si="3"/>
-        <v>546.87027049031872</v>
+        <v>549.24279515622504</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -17864,7 +17865,7 @@
       </c>
       <c r="B201">
         <f t="shared" ca="1" si="3"/>
-        <v>546.88692689462584</v>
+        <v>549.27041409303058</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -17873,7 +17874,7 @@
       </c>
       <c r="B202">
         <f t="shared" ca="1" si="3"/>
-        <v>546.96075029726171</v>
+        <v>549.31469824481451</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -17882,7 +17883,7 @@
       </c>
       <c r="B203">
         <f t="shared" ca="1" si="3"/>
-        <v>546.97284060071092</v>
+        <v>549.38610931268693</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -17891,7 +17892,7 @@
       </c>
       <c r="B204">
         <f t="shared" ca="1" si="3"/>
-        <v>547.02020353413741</v>
+        <v>549.44146629121099</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -17900,7 +17901,7 @@
       </c>
       <c r="B205">
         <f t="shared" ca="1" si="3"/>
-        <v>547.11955371574982</v>
+        <v>549.51473905664329</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -17909,7 +17910,7 @@
       </c>
       <c r="B206">
         <f t="shared" ca="1" si="3"/>
-        <v>547.15336167250746</v>
+        <v>549.56036945950893</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -17918,7 +17919,7 @@
       </c>
       <c r="B207">
         <f t="shared" ca="1" si="3"/>
-        <v>547.24457797110017</v>
+        <v>549.63273270187949</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -17927,7 +17928,7 @@
       </c>
       <c r="B208">
         <f t="shared" ca="1" si="3"/>
-        <v>547.2546187153556</v>
+        <v>549.67010388305528</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -17936,7 +17937,7 @@
       </c>
       <c r="B209">
         <f t="shared" ca="1" si="3"/>
-        <v>547.29208365618058</v>
+        <v>549.69265104933379</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -17945,7 +17946,7 @@
       </c>
       <c r="B210">
         <f t="shared" ca="1" si="3"/>
-        <v>547.33280323928045</v>
+        <v>549.74907879273417</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -17954,7 +17955,7 @@
       </c>
       <c r="B211">
         <f t="shared" ca="1" si="3"/>
-        <v>547.38091005697913</v>
+        <v>549.78993591886137</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -17963,7 +17964,7 @@
       </c>
       <c r="B212">
         <f t="shared" ca="1" si="3"/>
-        <v>547.41243188769522</v>
+        <v>549.81833332129645</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -17972,7 +17973,7 @@
       </c>
       <c r="B213">
         <f t="shared" ca="1" si="3"/>
-        <v>547.42475322568703</v>
+        <v>549.9154511100952</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -17981,7 +17982,7 @@
       </c>
       <c r="B214">
         <f t="shared" ca="1" si="3"/>
-        <v>547.45390934526733</v>
+        <v>549.99921057955203</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -17990,7 +17991,7 @@
       </c>
       <c r="B215">
         <f t="shared" ca="1" si="3"/>
-        <v>547.53641477114252</v>
+        <v>550.06691260386754</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -17999,7 +18000,7 @@
       </c>
       <c r="B216">
         <f t="shared" ca="1" si="3"/>
-        <v>547.54098116112641</v>
+        <v>550.08899173605312</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -18008,7 +18009,7 @@
       </c>
       <c r="B217">
         <f t="shared" ca="1" si="3"/>
-        <v>547.59041498034912</v>
+        <v>550.16753265618183</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -18017,7 +18018,7 @@
       </c>
       <c r="B218">
         <f t="shared" ca="1" si="3"/>
-        <v>547.63475534415682</v>
+        <v>550.17441654596723</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -18026,7 +18027,7 @@
       </c>
       <c r="B219">
         <f t="shared" ca="1" si="3"/>
-        <v>547.71804536762158</v>
+        <v>550.22998340130937</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -18035,7 +18036,7 @@
       </c>
       <c r="B220">
         <f t="shared" ca="1" si="3"/>
-        <v>547.72664791729505</v>
+        <v>550.25576141629119</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -18044,7 +18045,7 @@
       </c>
       <c r="B221">
         <f t="shared" ca="1" si="3"/>
-        <v>547.81285026866612</v>
+        <v>550.31201010451218</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -18053,7 +18054,7 @@
       </c>
       <c r="B222">
         <f t="shared" ca="1" si="3"/>
-        <v>547.88807304141005</v>
+        <v>550.34791572063455</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -18062,7 +18063,7 @@
       </c>
       <c r="B223">
         <f t="shared" ca="1" si="3"/>
-        <v>547.91341795132973</v>
+        <v>550.44181108764349</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -18071,7 +18072,7 @@
       </c>
       <c r="B224">
         <f t="shared" ca="1" si="3"/>
-        <v>547.98568955329984</v>
+        <v>550.53963083140786</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -18080,7 +18081,7 @@
       </c>
       <c r="B225">
         <f t="shared" ca="1" si="3"/>
-        <v>548.04333706729506</v>
+        <v>550.57422174802457</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -18089,7 +18090,7 @@
       </c>
       <c r="B226">
         <f t="shared" ca="1" si="3"/>
-        <v>548.06390533790886</v>
+        <v>550.57600038091118</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -18098,7 +18099,7 @@
       </c>
       <c r="B227">
         <f t="shared" ca="1" si="3"/>
-        <v>548.14224360661615</v>
+        <v>550.61409171713467</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -18107,7 +18108,7 @@
       </c>
       <c r="B228">
         <f t="shared" ca="1" si="3"/>
-        <v>548.19449964372302</v>
+        <v>550.67163245627341</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -18116,7 +18117,7 @@
       </c>
       <c r="B229">
         <f t="shared" ca="1" si="3"/>
-        <v>548.27764901988598</v>
+        <v>550.67563661971826</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -18125,7 +18126,7 @@
       </c>
       <c r="B230">
         <f t="shared" ca="1" si="3"/>
-        <v>548.30967664344962</v>
+        <v>550.73791966543513</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -18134,7 +18135,7 @@
       </c>
       <c r="B231">
         <f t="shared" ca="1" si="3"/>
-        <v>548.3702534965214</v>
+        <v>550.8192574040055</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -18143,7 +18144,7 @@
       </c>
       <c r="B232">
         <f t="shared" ca="1" si="3"/>
-        <v>548.42641726467059</v>
+        <v>550.82779016066218</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -18152,7 +18153,7 @@
       </c>
       <c r="B233">
         <f t="shared" ca="1" si="3"/>
-        <v>548.49197094834005</v>
+        <v>550.83494393577541</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -18161,7 +18162,7 @@
       </c>
       <c r="B234">
         <f t="shared" ca="1" si="3"/>
-        <v>548.54065598278862</v>
+        <v>550.86260482305545</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -18170,7 +18171,7 @@
       </c>
       <c r="B235">
         <f t="shared" ca="1" si="3"/>
-        <v>548.63926685035983</v>
+        <v>550.95216690410848</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -18179,7 +18180,7 @@
       </c>
       <c r="B236">
         <f t="shared" ca="1" si="3"/>
-        <v>548.71502195451467</v>
+        <v>550.98642716176948</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -18188,7 +18189,7 @@
       </c>
       <c r="B237">
         <f t="shared" ca="1" si="3"/>
-        <v>548.78270341133111</v>
+        <v>551.05842320497129</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -18197,7 +18198,7 @@
       </c>
       <c r="B238">
         <f t="shared" ca="1" si="3"/>
-        <v>548.82726341101272</v>
+        <v>551.0816070668169</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -18206,7 +18207,7 @@
       </c>
       <c r="B239">
         <f t="shared" ca="1" si="3"/>
-        <v>548.85140915554359</v>
+        <v>551.09405996788394</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -18215,7 +18216,7 @@
       </c>
       <c r="B240">
         <f t="shared" ca="1" si="3"/>
-        <v>548.92432339597758</v>
+        <v>551.15157920199749</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -18224,7 +18225,7 @@
       </c>
       <c r="B241">
         <f t="shared" ca="1" si="3"/>
-        <v>548.96650878288608</v>
+        <v>551.17404777933405</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -18233,7 +18234,7 @@
       </c>
       <c r="B242">
         <f t="shared" ca="1" si="3"/>
-        <v>549.03940975351873</v>
+        <v>551.19750921890397</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -18242,7 +18243,7 @@
       </c>
       <c r="B243">
         <f t="shared" ref="B243:B306" ca="1" si="4">B242+0.1*RAND()</f>
-        <v>549.07772184867076</v>
+        <v>551.29113197563584</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -18251,7 +18252,7 @@
       </c>
       <c r="B244">
         <f t="shared" ca="1" si="4"/>
-        <v>549.1333548128332</v>
+        <v>551.33847314352852</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -18260,7 +18261,7 @@
       </c>
       <c r="B245">
         <f t="shared" ca="1" si="4"/>
-        <v>549.19931851480351</v>
+        <v>551.37120808560633</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -18269,7 +18270,7 @@
       </c>
       <c r="B246">
         <f t="shared" ca="1" si="4"/>
-        <v>549.26557312916714</v>
+        <v>551.44368238995798</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -18278,7 +18279,7 @@
       </c>
       <c r="B247">
         <f t="shared" ca="1" si="4"/>
-        <v>549.34235309134465</v>
+        <v>551.44838334685699</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -18287,7 +18288,7 @@
       </c>
       <c r="B248">
         <f t="shared" ca="1" si="4"/>
-        <v>549.39488775933546</v>
+        <v>551.50655434894986</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -18296,7 +18297,7 @@
       </c>
       <c r="B249">
         <f t="shared" ca="1" si="4"/>
-        <v>549.48552047485066</v>
+        <v>551.59140381863233</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -18305,7 +18306,7 @@
       </c>
       <c r="B250">
         <f t="shared" ca="1" si="4"/>
-        <v>549.54037513496974</v>
+        <v>551.65768850789516</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -18314,7 +18315,7 @@
       </c>
       <c r="B251">
         <f t="shared" ca="1" si="4"/>
-        <v>549.61455828939847</v>
+        <v>551.67876243346063</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -18323,7 +18324,7 @@
       </c>
       <c r="B252">
         <f t="shared" ca="1" si="4"/>
-        <v>549.68346058171664</v>
+        <v>551.74995282957718</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -18332,7 +18333,7 @@
       </c>
       <c r="B253">
         <f t="shared" ca="1" si="4"/>
-        <v>549.77663619232044</v>
+        <v>551.81391415097755</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -18341,7 +18342,7 @@
       </c>
       <c r="B254">
         <f t="shared" ca="1" si="4"/>
-        <v>549.85776881155675</v>
+        <v>551.88882679736935</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -18350,7 +18351,7 @@
       </c>
       <c r="B255">
         <f t="shared" ca="1" si="4"/>
-        <v>549.89560328633138</v>
+        <v>551.93438222505165</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -18359,7 +18360,7 @@
       </c>
       <c r="B256">
         <f t="shared" ca="1" si="4"/>
-        <v>549.92801883758466</v>
+        <v>551.95689457189474</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -18368,7 +18369,7 @@
       </c>
       <c r="B257">
         <f t="shared" ca="1" si="4"/>
-        <v>549.9861387108657</v>
+        <v>552.03301247737397</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -18377,7 +18378,7 @@
       </c>
       <c r="B258">
         <f t="shared" ca="1" si="4"/>
-        <v>549.99968211653572</v>
+        <v>552.08306975931271</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -18386,7 +18387,7 @@
       </c>
       <c r="B259">
         <f t="shared" ca="1" si="4"/>
-        <v>550.03905712170638</v>
+        <v>552.10355797475552</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -18395,7 +18396,7 @@
       </c>
       <c r="B260">
         <f t="shared" ca="1" si="4"/>
-        <v>550.08444388238161</v>
+        <v>552.11787680571103</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -18404,7 +18405,7 @@
       </c>
       <c r="B261">
         <f t="shared" ca="1" si="4"/>
-        <v>550.1095678586762</v>
+        <v>552.12455888529848</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -18413,7 +18414,7 @@
       </c>
       <c r="B262">
         <f t="shared" ca="1" si="4"/>
-        <v>550.12133590616065</v>
+        <v>552.143037508156</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -18422,7 +18423,7 @@
       </c>
       <c r="B263">
         <f t="shared" ca="1" si="4"/>
-        <v>550.1809104218222</v>
+        <v>552.17239394477474</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -18431,7 +18432,7 @@
       </c>
       <c r="B264">
         <f t="shared" ca="1" si="4"/>
-        <v>550.22409706115957</v>
+        <v>552.21221193911754</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -18440,7 +18441,7 @@
       </c>
       <c r="B265">
         <f t="shared" ca="1" si="4"/>
-        <v>550.31397573147115</v>
+        <v>552.28085567958669</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -18449,7 +18450,7 @@
       </c>
       <c r="B266">
         <f t="shared" ca="1" si="4"/>
-        <v>550.32966095060226</v>
+        <v>552.3068324011706</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -18458,7 +18459,7 @@
       </c>
       <c r="B267">
         <f t="shared" ca="1" si="4"/>
-        <v>550.41357080769944</v>
+        <v>552.3444141146008</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -18467,7 +18468,7 @@
       </c>
       <c r="B268">
         <f t="shared" ca="1" si="4"/>
-        <v>550.49228230228891</v>
+        <v>552.4249329474012</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -18476,7 +18477,7 @@
       </c>
       <c r="B269">
         <f t="shared" ca="1" si="4"/>
-        <v>550.5026185383789</v>
+        <v>552.47306828780359</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -18485,7 +18486,7 @@
       </c>
       <c r="B270">
         <f t="shared" ca="1" si="4"/>
-        <v>550.58804653293817</v>
+        <v>552.53472863244667</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -18494,7 +18495,7 @@
       </c>
       <c r="B271">
         <f t="shared" ca="1" si="4"/>
-        <v>550.60559896847371</v>
+        <v>552.53980847558717</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -18503,7 +18504,7 @@
       </c>
       <c r="B272">
         <f t="shared" ca="1" si="4"/>
-        <v>550.62520792134967</v>
+        <v>552.55369701129564</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -18512,7 +18513,7 @@
       </c>
       <c r="B273">
         <f t="shared" ca="1" si="4"/>
-        <v>550.67790790328092</v>
+        <v>552.614341459201</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -18521,7 +18522,7 @@
       </c>
       <c r="B274">
         <f t="shared" ca="1" si="4"/>
-        <v>550.73021953627074</v>
+        <v>552.62192780858163</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -18530,7 +18531,7 @@
       </c>
       <c r="B275">
         <f t="shared" ca="1" si="4"/>
-        <v>550.74988412444475</v>
+        <v>552.68834693423764</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -18539,7 +18540,7 @@
       </c>
       <c r="B276">
         <f t="shared" ca="1" si="4"/>
-        <v>550.81901229822802</v>
+        <v>552.70740397788938</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -18548,7 +18549,7 @@
       </c>
       <c r="B277">
         <f t="shared" ca="1" si="4"/>
-        <v>550.86559654652797</v>
+        <v>552.76576143319039</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -18557,7 +18558,7 @@
       </c>
       <c r="B278">
         <f t="shared" ca="1" si="4"/>
-        <v>550.9075934648564</v>
+        <v>552.82680745852736</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -18566,7 +18567,7 @@
       </c>
       <c r="B279">
         <f t="shared" ca="1" si="4"/>
-        <v>551.00100286109728</v>
+        <v>552.85214877606472</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -18575,7 +18576,7 @@
       </c>
       <c r="B280">
         <f t="shared" ca="1" si="4"/>
-        <v>551.03229382811753</v>
+        <v>552.92332468533505</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -18584,7 +18585,7 @@
       </c>
       <c r="B281">
         <f t="shared" ca="1" si="4"/>
-        <v>551.08832837246393</v>
+        <v>553.01720342660451</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -18593,7 +18594,7 @@
       </c>
       <c r="B282">
         <f t="shared" ca="1" si="4"/>
-        <v>551.11515788418046</v>
+        <v>553.05615272294108</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -18602,7 +18603,7 @@
       </c>
       <c r="B283">
         <f t="shared" ca="1" si="4"/>
-        <v>551.12721672799887</v>
+        <v>553.06362008551105</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -18611,7 +18612,7 @@
       </c>
       <c r="B284">
         <f t="shared" ca="1" si="4"/>
-        <v>551.17746991543288</v>
+        <v>553.12420915088251</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -18620,7 +18621,7 @@
       </c>
       <c r="B285">
         <f t="shared" ca="1" si="4"/>
-        <v>551.20496811716328</v>
+        <v>553.15406132415467</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -18629,7 +18630,7 @@
       </c>
       <c r="B286">
         <f t="shared" ca="1" si="4"/>
-        <v>551.24217829383201</v>
+        <v>553.23660704327619</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -18638,7 +18639,7 @@
       </c>
       <c r="B287">
         <f t="shared" ca="1" si="4"/>
-        <v>551.30566286926728</v>
+        <v>553.33635801320236</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -18647,7 +18648,7 @@
       </c>
       <c r="B288">
         <f t="shared" ca="1" si="4"/>
-        <v>551.3240593479901</v>
+        <v>553.37567976605101</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -18656,7 +18657,7 @@
       </c>
       <c r="B289">
         <f t="shared" ca="1" si="4"/>
-        <v>551.34544064542911</v>
+        <v>553.43856624652415</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -18665,7 +18666,7 @@
       </c>
       <c r="B290">
         <f t="shared" ca="1" si="4"/>
-        <v>551.36866488561623</v>
+        <v>553.43867901546025</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -18674,7 +18675,7 @@
       </c>
       <c r="B291">
         <f t="shared" ca="1" si="4"/>
-        <v>551.43788084162713</v>
+        <v>553.49930742059746</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -18683,7 +18684,7 @@
       </c>
       <c r="B292">
         <f t="shared" ca="1" si="4"/>
-        <v>551.43850896553693</v>
+        <v>553.54261098887741</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -18692,7 +18693,7 @@
       </c>
       <c r="B293">
         <f t="shared" ca="1" si="4"/>
-        <v>551.45377795735533</v>
+        <v>553.55239421031206</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -18701,7 +18702,7 @@
       </c>
       <c r="B294">
         <f t="shared" ca="1" si="4"/>
-        <v>551.48068101928538</v>
+        <v>553.61572095305849</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -18710,7 +18711,7 @@
       </c>
       <c r="B295">
         <f t="shared" ca="1" si="4"/>
-        <v>551.49339335941931</v>
+        <v>553.63326989530731</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -18719,7 +18720,7 @@
       </c>
       <c r="B296">
         <f t="shared" ca="1" si="4"/>
-        <v>551.54847132185478</v>
+        <v>553.69330622632265</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -18728,7 +18729,7 @@
       </c>
       <c r="B297">
         <f t="shared" ca="1" si="4"/>
-        <v>551.58348230807724</v>
+        <v>553.70731125740292</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -18737,7 +18738,7 @@
       </c>
       <c r="B298">
         <f t="shared" ca="1" si="4"/>
-        <v>551.68155632180481</v>
+        <v>553.71259734662601</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -18746,7 +18747,7 @@
       </c>
       <c r="B299">
         <f t="shared" ca="1" si="4"/>
-        <v>551.75726548174555</v>
+        <v>553.81203408855561</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -18755,7 +18756,7 @@
       </c>
       <c r="B300">
         <f t="shared" ca="1" si="4"/>
-        <v>551.81412667554685</v>
+        <v>553.85548221816953</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -18764,7 +18765,7 @@
       </c>
       <c r="B301">
         <f t="shared" ca="1" si="4"/>
-        <v>551.88444248959865</v>
+        <v>553.89031181920598</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -18773,7 +18774,7 @@
       </c>
       <c r="B302">
         <f t="shared" ca="1" si="4"/>
-        <v>551.92014596833053</v>
+        <v>553.89217731523149</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -18782,7 +18783,7 @@
       </c>
       <c r="B303">
         <f t="shared" ca="1" si="4"/>
-        <v>551.95020476985269</v>
+        <v>553.91691094488772</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -18791,7 +18792,7 @@
       </c>
       <c r="B304">
         <f t="shared" ca="1" si="4"/>
-        <v>552.0460559013045</v>
+        <v>554.01048716253115</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -18800,7 +18801,7 @@
       </c>
       <c r="B305">
         <f t="shared" ca="1" si="4"/>
-        <v>552.09470206939443</v>
+        <v>554.06266237784496</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -18809,7 +18810,7 @@
       </c>
       <c r="B306">
         <f t="shared" ca="1" si="4"/>
-        <v>552.15755230048057</v>
+        <v>554.13072914282088</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -18818,7 +18819,7 @@
       </c>
       <c r="B307">
         <f t="shared" ref="B307:B370" ca="1" si="5">B306+0.1*RAND()</f>
-        <v>552.17616981934293</v>
+        <v>554.20144843655669</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -18827,7 +18828,7 @@
       </c>
       <c r="B308">
         <f t="shared" ca="1" si="5"/>
-        <v>552.19183143373721</v>
+        <v>554.25641644821906</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -18836,7 +18837,7 @@
       </c>
       <c r="B309">
         <f t="shared" ca="1" si="5"/>
-        <v>552.25829960387716</v>
+        <v>554.31913903622831</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -18845,7 +18846,7 @@
       </c>
       <c r="B310">
         <f t="shared" ca="1" si="5"/>
-        <v>552.33292504204485</v>
+        <v>554.39354997774399</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -18854,7 +18855,7 @@
       </c>
       <c r="B311">
         <f t="shared" ca="1" si="5"/>
-        <v>552.41086771298183</v>
+        <v>554.43460845713844</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -18863,7 +18864,7 @@
       </c>
       <c r="B312">
         <f t="shared" ca="1" si="5"/>
-        <v>552.47924003662786</v>
+        <v>554.50924472719123</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -18872,7 +18873,7 @@
       </c>
       <c r="B313">
         <f t="shared" ca="1" si="5"/>
-        <v>552.5639515481131</v>
+        <v>554.57402639474708</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -18881,7 +18882,7 @@
       </c>
       <c r="B314">
         <f t="shared" ca="1" si="5"/>
-        <v>552.57742608657088</v>
+        <v>554.6707382345819</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -18890,7 +18891,7 @@
       </c>
       <c r="B315">
         <f t="shared" ca="1" si="5"/>
-        <v>552.64090800805229</v>
+        <v>554.71770770015178</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -18899,7 +18900,7 @@
       </c>
       <c r="B316">
         <f t="shared" ca="1" si="5"/>
-        <v>552.67141404228607</v>
+        <v>554.79180489174996</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -18908,7 +18909,7 @@
       </c>
       <c r="B317">
         <f t="shared" ca="1" si="5"/>
-        <v>552.69430783957091</v>
+        <v>554.85157004121663</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -18917,7 +18918,7 @@
       </c>
       <c r="B318">
         <f t="shared" ca="1" si="5"/>
-        <v>552.78535727658891</v>
+        <v>554.89306390452543</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -18926,7 +18927,7 @@
       </c>
       <c r="B319">
         <f t="shared" ca="1" si="5"/>
-        <v>552.88324961580327</v>
+        <v>554.93441479389946</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -18935,7 +18936,7 @@
       </c>
       <c r="B320">
         <f t="shared" ca="1" si="5"/>
-        <v>552.93100220677263</v>
+        <v>554.95392884858359</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -18944,7 +18945,7 @@
       </c>
       <c r="B321">
         <f t="shared" ca="1" si="5"/>
-        <v>553.03050989579833</v>
+        <v>555.04666274487874</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -18953,7 +18954,7 @@
       </c>
       <c r="B322">
         <f t="shared" ca="1" si="5"/>
-        <v>553.11713699357711</v>
+        <v>555.1091834186434</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -18962,7 +18963,7 @@
       </c>
       <c r="B323">
         <f t="shared" ca="1" si="5"/>
-        <v>553.21412849565127</v>
+        <v>555.20549894074009</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -18971,7 +18972,7 @@
       </c>
       <c r="B324">
         <f t="shared" ca="1" si="5"/>
-        <v>553.27723489141272</v>
+        <v>555.25522741893462</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -18980,7 +18981,7 @@
       </c>
       <c r="B325">
         <f t="shared" ca="1" si="5"/>
-        <v>553.3172010800979</v>
+        <v>555.33608325934722</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -18989,7 +18990,7 @@
       </c>
       <c r="B326">
         <f t="shared" ca="1" si="5"/>
-        <v>553.3753709637374</v>
+        <v>555.40947531738698</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -18998,7 +18999,7 @@
       </c>
       <c r="B327">
         <f t="shared" ca="1" si="5"/>
-        <v>553.41918994102355</v>
+        <v>555.50707152298355</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -19007,7 +19008,7 @@
       </c>
       <c r="B328">
         <f t="shared" ca="1" si="5"/>
-        <v>553.47805954466332</v>
+        <v>555.5641793590828</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -19016,7 +19017,7 @@
       </c>
       <c r="B329">
         <f t="shared" ca="1" si="5"/>
-        <v>553.50719922044857</v>
+        <v>555.62984234707972</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -19025,7 +19026,7 @@
       </c>
       <c r="B330">
         <f t="shared" ca="1" si="5"/>
-        <v>553.52742481420296</v>
+        <v>555.70596855971053</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -19034,7 +19035,7 @@
       </c>
       <c r="B331">
         <f t="shared" ca="1" si="5"/>
-        <v>553.60223171544874</v>
+        <v>555.71238870429545</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -19043,7 +19044,7 @@
       </c>
       <c r="B332">
         <f t="shared" ca="1" si="5"/>
-        <v>553.68212048395924</v>
+        <v>555.73180982702979</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -19052,7 +19053,7 @@
       </c>
       <c r="B333">
         <f t="shared" ca="1" si="5"/>
-        <v>553.72058918901018</v>
+        <v>555.79230113875963</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -19061,7 +19062,7 @@
       </c>
       <c r="B334">
         <f t="shared" ca="1" si="5"/>
-        <v>553.77367918351626</v>
+        <v>555.8101874122716</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -19070,7 +19071,7 @@
       </c>
       <c r="B335">
         <f t="shared" ca="1" si="5"/>
-        <v>553.85027107132601</v>
+        <v>555.8921057564271</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -19079,7 +19080,7 @@
       </c>
       <c r="B336">
         <f t="shared" ca="1" si="5"/>
-        <v>553.8948679841161</v>
+        <v>555.93032507814121</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -19088,7 +19089,7 @@
       </c>
       <c r="B337">
         <f t="shared" ca="1" si="5"/>
-        <v>553.96167387396713</v>
+        <v>555.94800614242922</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -19097,7 +19098,7 @@
       </c>
       <c r="B338">
         <f t="shared" ca="1" si="5"/>
-        <v>553.98595036234099</v>
+        <v>555.98753353698748</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -19106,7 +19107,7 @@
       </c>
       <c r="B339">
         <f t="shared" ca="1" si="5"/>
-        <v>554.01059728821906</v>
+        <v>555.98890923464728</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -19115,7 +19116,7 @@
       </c>
       <c r="B340">
         <f t="shared" ca="1" si="5"/>
-        <v>554.01345786402158</v>
+        <v>556.0847439975646</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -19124,7 +19125,7 @@
       </c>
       <c r="B341">
         <f t="shared" ca="1" si="5"/>
-        <v>554.03853971876504</v>
+        <v>556.10801816973265</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -19133,7 +19134,7 @@
       </c>
       <c r="B342">
         <f t="shared" ca="1" si="5"/>
-        <v>554.08851002502695</v>
+        <v>556.11177183898417</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -19142,7 +19143,7 @@
       </c>
       <c r="B343">
         <f t="shared" ca="1" si="5"/>
-        <v>554.11654631529757</v>
+        <v>556.18526804065664</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -19151,7 +19152,7 @@
       </c>
       <c r="B344">
         <f t="shared" ca="1" si="5"/>
-        <v>554.13996450255934</v>
+        <v>556.24778403392088</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -19160,7 +19161,7 @@
       </c>
       <c r="B345">
         <f t="shared" ca="1" si="5"/>
-        <v>554.14510279528895</v>
+        <v>556.30816278664179</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -19169,7 +19170,7 @@
       </c>
       <c r="B346">
         <f t="shared" ca="1" si="5"/>
-        <v>554.17362429305581</v>
+        <v>556.38855287315346</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -19178,7 +19179,7 @@
       </c>
       <c r="B347">
         <f t="shared" ca="1" si="5"/>
-        <v>554.2702679399257</v>
+        <v>556.44745346148352</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -19187,7 +19188,7 @@
       </c>
       <c r="B348">
         <f t="shared" ca="1" si="5"/>
-        <v>554.342850511081</v>
+        <v>556.47891004683208</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -19196,7 +19197,7 @@
       </c>
       <c r="B349">
         <f t="shared" ca="1" si="5"/>
-        <v>554.39852861165127</v>
+        <v>556.56552601304202</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -19205,7 +19206,7 @@
       </c>
       <c r="B350">
         <f t="shared" ca="1" si="5"/>
-        <v>554.43703235845305</v>
+        <v>556.56825341287447</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -19214,7 +19215,7 @@
       </c>
       <c r="B351">
         <f t="shared" ca="1" si="5"/>
-        <v>554.50839110509332</v>
+        <v>556.63258506676641</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -19223,7 +19224,7 @@
       </c>
       <c r="B352">
         <f t="shared" ca="1" si="5"/>
-        <v>554.58021503970963</v>
+        <v>556.69239927427043</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -19232,7 +19233,7 @@
       </c>
       <c r="B353">
         <f t="shared" ca="1" si="5"/>
-        <v>554.59732363659202</v>
+        <v>556.72352591279173</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -19241,7 +19242,7 @@
       </c>
       <c r="B354">
         <f t="shared" ca="1" si="5"/>
-        <v>554.66590897919548</v>
+        <v>556.77416718369898</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -19250,7 +19251,7 @@
       </c>
       <c r="B355">
         <f t="shared" ca="1" si="5"/>
-        <v>554.75205951492717</v>
+        <v>556.85794810541529</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -19259,7 +19260,7 @@
       </c>
       <c r="B356">
         <f t="shared" ca="1" si="5"/>
-        <v>554.75641729477979</v>
+        <v>556.91688727533392</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -19268,7 +19269,7 @@
       </c>
       <c r="B357">
         <f t="shared" ca="1" si="5"/>
-        <v>554.80025575910179</v>
+        <v>556.92308136264626</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -19277,7 +19278,7 @@
       </c>
       <c r="B358">
         <f t="shared" ca="1" si="5"/>
-        <v>554.84101238861444</v>
+        <v>556.93960390007601</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -19286,7 +19287,7 @@
       </c>
       <c r="B359">
         <f t="shared" ca="1" si="5"/>
-        <v>554.89502015990047</v>
+        <v>556.9758998375961</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -19295,7 +19296,7 @@
       </c>
       <c r="B360">
         <f t="shared" ca="1" si="5"/>
-        <v>554.908447339286</v>
+        <v>556.98279599034151</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -19304,7 +19305,7 @@
       </c>
       <c r="B361">
         <f t="shared" ca="1" si="5"/>
-        <v>555.00154947369731</v>
+        <v>557.07721469501166</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -19313,7 +19314,7 @@
       </c>
       <c r="B362">
         <f t="shared" ca="1" si="5"/>
-        <v>555.01427310054362</v>
+        <v>557.15368923262884</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -19322,7 +19323,7 @@
       </c>
       <c r="B363">
         <f t="shared" ca="1" si="5"/>
-        <v>555.01616263868118</v>
+        <v>557.21288109218324</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -19331,7 +19332,7 @@
       </c>
       <c r="B364">
         <f t="shared" ca="1" si="5"/>
-        <v>555.0368643520859</v>
+        <v>557.24894830434243</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -19340,7 +19341,7 @@
       </c>
       <c r="B365">
         <f t="shared" ca="1" si="5"/>
-        <v>555.05427342518556</v>
+        <v>557.30883906484269</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -19349,7 +19350,7 @@
       </c>
       <c r="B366">
         <f t="shared" ca="1" si="5"/>
-        <v>555.10847430066269</v>
+        <v>557.36912412260961</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -19358,7 +19359,7 @@
       </c>
       <c r="B367">
         <f t="shared" ca="1" si="5"/>
-        <v>555.19678442848965</v>
+        <v>557.46768459015095</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -19367,7 +19368,7 @@
       </c>
       <c r="B368">
         <f t="shared" ca="1" si="5"/>
-        <v>555.21687798798769</v>
+        <v>557.52464346053841</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -19376,7 +19377,7 @@
       </c>
       <c r="B369">
         <f t="shared" ca="1" si="5"/>
-        <v>555.23066170035906</v>
+        <v>557.54895302691898</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -19385,7 +19386,7 @@
       </c>
       <c r="B370">
         <f t="shared" ca="1" si="5"/>
-        <v>555.28184610894868</v>
+        <v>557.62860191069581</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -19394,7 +19395,7 @@
       </c>
       <c r="B371">
         <f t="shared" ref="B371:B402" ca="1" si="6">B370+0.1*RAND()</f>
-        <v>555.31273955393647</v>
+        <v>557.68540926477976</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -19403,7 +19404,7 @@
       </c>
       <c r="B372">
         <f t="shared" ca="1" si="6"/>
-        <v>555.40591065580998</v>
+        <v>557.71211084232311</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -19412,7 +19413,7 @@
       </c>
       <c r="B373">
         <f t="shared" ca="1" si="6"/>
-        <v>555.42741495057692</v>
+        <v>557.75471946017126</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -19421,7 +19422,7 @@
       </c>
       <c r="B374">
         <f t="shared" ca="1" si="6"/>
-        <v>555.4585269959108</v>
+        <v>557.82683586577184</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -19430,7 +19431,7 @@
       </c>
       <c r="B375">
         <f t="shared" ca="1" si="6"/>
-        <v>555.52752831662417</v>
+        <v>557.92325214703453</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -19439,7 +19440,7 @@
       </c>
       <c r="B376">
         <f t="shared" ca="1" si="6"/>
-        <v>555.55914000941357</v>
+        <v>557.9309483066379</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -19448,7 +19449,7 @@
       </c>
       <c r="B377">
         <f t="shared" ca="1" si="6"/>
-        <v>555.61750873727044</v>
+        <v>557.99300990954316</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -19457,7 +19458,7 @@
       </c>
       <c r="B378">
         <f t="shared" ca="1" si="6"/>
-        <v>555.67715236053289</v>
+        <v>558.06511929470491</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -19466,7 +19467,7 @@
       </c>
       <c r="B379">
         <f t="shared" ca="1" si="6"/>
-        <v>555.77621563871026</v>
+        <v>558.13614205793044</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -19475,7 +19476,7 @@
       </c>
       <c r="B380">
         <f t="shared" ca="1" si="6"/>
-        <v>555.80101873651711</v>
+        <v>558.19614041542582</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -19484,7 +19485,7 @@
       </c>
       <c r="B381">
         <f t="shared" ca="1" si="6"/>
-        <v>555.82452686432248</v>
+        <v>558.21897573696663</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -19493,7 +19494,7 @@
       </c>
       <c r="B382">
         <f t="shared" ca="1" si="6"/>
-        <v>555.85524319559727</v>
+        <v>558.31615577495108</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -19502,7 +19503,7 @@
       </c>
       <c r="B383">
         <f t="shared" ca="1" si="6"/>
-        <v>555.91623986906927</v>
+        <v>558.34673583894823</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -19511,7 +19512,7 @@
       </c>
       <c r="B384">
         <f t="shared" ca="1" si="6"/>
-        <v>555.95938903390231</v>
+        <v>558.36749640303685</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -19520,7 +19521,7 @@
       </c>
       <c r="B385">
         <f t="shared" ca="1" si="6"/>
-        <v>556.02052629294462</v>
+        <v>558.38911327132269</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -19529,7 +19530,7 @@
       </c>
       <c r="B386">
         <f t="shared" ca="1" si="6"/>
-        <v>556.07787864469981</v>
+        <v>558.4115632096732</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -19538,7 +19539,7 @@
       </c>
       <c r="B387">
         <f t="shared" ca="1" si="6"/>
-        <v>556.12115495280659</v>
+        <v>558.50329476518993</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -19547,7 +19548,7 @@
       </c>
       <c r="B388">
         <f t="shared" ca="1" si="6"/>
-        <v>556.18520245364221</v>
+        <v>558.53831456453986</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -19556,7 +19557,7 @@
       </c>
       <c r="B389">
         <f t="shared" ca="1" si="6"/>
-        <v>556.22470130335614</v>
+        <v>558.56744057949606</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -19565,7 +19566,7 @@
       </c>
       <c r="B390">
         <f t="shared" ca="1" si="6"/>
-        <v>556.2368815582123</v>
+        <v>558.57759451612458</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -19574,7 +19575,7 @@
       </c>
       <c r="B391">
         <f t="shared" ca="1" si="6"/>
-        <v>556.24653987467423</v>
+        <v>558.63909369374392</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -19583,7 +19584,7 @@
       </c>
       <c r="B392">
         <f t="shared" ca="1" si="6"/>
-        <v>556.25802011625137</v>
+        <v>558.70567770840876</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -19592,7 +19593,7 @@
       </c>
       <c r="B393">
         <f t="shared" ca="1" si="6"/>
-        <v>556.28710470567819</v>
+        <v>558.73887515779893</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -19601,7 +19602,7 @@
       </c>
       <c r="B394">
         <f t="shared" ca="1" si="6"/>
-        <v>556.3789220372206</v>
+        <v>558.79124895050427</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -19610,7 +19611,7 @@
       </c>
       <c r="B395">
         <f t="shared" ca="1" si="6"/>
-        <v>556.40862206689781</v>
+        <v>558.82970848616333</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -19619,7 +19620,7 @@
       </c>
       <c r="B396">
         <f t="shared" ca="1" si="6"/>
-        <v>556.45566677300224</v>
+        <v>558.8605538931854</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -19628,7 +19629,7 @@
       </c>
       <c r="B397">
         <f t="shared" ca="1" si="6"/>
-        <v>556.52057436331165</v>
+        <v>558.88937189014837</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -19637,7 +19638,7 @@
       </c>
       <c r="B398">
         <f t="shared" ca="1" si="6"/>
-        <v>556.61692640233389</v>
+        <v>558.9128908633237</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -19646,7 +19647,7 @@
       </c>
       <c r="B399">
         <f t="shared" ca="1" si="6"/>
-        <v>556.69607279403283</v>
+        <v>558.9277106114547</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -19655,7 +19656,7 @@
       </c>
       <c r="B400">
         <f t="shared" ca="1" si="6"/>
-        <v>556.78787843314308</v>
+        <v>558.94801666176852</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -19664,7 +19665,7 @@
       </c>
       <c r="B401">
         <f t="shared" ca="1" si="6"/>
-        <v>556.80707015122789</v>
+        <v>559.02131701086307</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -19673,7 +19674,7 @@
       </c>
       <c r="B402">
         <f t="shared" ca="1" si="6"/>
-        <v>556.86911873164115</v>
+        <v>559.10431724483647</v>
       </c>
     </row>
   </sheetData>
